--- a/Submission_History.xlsx
+++ b/Submission_History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e7zv5qo\Jupyter_Notebooks\UCB_Deep_Learning_03\Module5\Week5_DL_CycleGAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D0DB42-B366-45CF-A1F8-DC101147BF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B09431-ED22-4D5C-8AD5-FE0183CDD1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EF42F3AA-3E01-4007-A2BA-8EFAC7320B52}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EF42F3AA-3E01-4007-A2BA-8EFAC7320B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>Version</t>
   </si>
@@ -214,6 +214,84 @@
   </si>
   <si>
     <t xml:space="preserve">28 Epochs; steps_per_epoch=1490 </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>COM-PARABLE</t>
+  </si>
+  <si>
+    <t>Version Label</t>
+  </si>
+  <si>
+    <t>Steps per Epoch</t>
+  </si>
+  <si>
+    <t>V33</t>
+  </si>
+  <si>
+    <t>182 min</t>
+  </si>
+  <si>
+    <t>80 epochs 750 steps</t>
+  </si>
+  <si>
+    <t>V34</t>
+  </si>
+  <si>
+    <t>69 min</t>
+  </si>
+  <si>
+    <t>V35</t>
+  </si>
+  <si>
+    <t>63 min</t>
+  </si>
+  <si>
+    <t>V36</t>
+  </si>
+  <si>
+    <t>75 min</t>
+  </si>
+  <si>
+    <t>66 min</t>
+  </si>
+  <si>
+    <t>72 min</t>
+  </si>
+  <si>
+    <t>V37</t>
+  </si>
+  <si>
+    <t>V38</t>
+  </si>
+  <si>
+    <t>V39</t>
+  </si>
+  <si>
+    <t>73 min</t>
+  </si>
+  <si>
+    <t>V40</t>
+  </si>
+  <si>
+    <t>V41</t>
+  </si>
+  <si>
+    <t>V42</t>
+  </si>
+  <si>
+    <t>V43</t>
+  </si>
+  <si>
+    <t>71 min</t>
+  </si>
+  <si>
+    <t>70 min</t>
+  </si>
+  <si>
+    <t>74 min</t>
   </si>
 </sst>
 </file>
@@ -578,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89938FD-28F4-4E6B-AB62-E559F47DEAC9}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F1" sqref="F1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +667,7 @@
     <col min="5" max="5" width="64.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,8 +683,23 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -622,8 +715,17 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -639,8 +741,17 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -656,8 +767,17 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>78.879159999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -673,8 +793,23 @@
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>1500</v>
+      </c>
+      <c r="J5">
+        <v>40.662230000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -690,8 +825,23 @@
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>1500</v>
+      </c>
+      <c r="J6">
+        <v>41.007510000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -707,8 +857,17 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>66.463300000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -724,8 +883,23 @@
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>1500</v>
+      </c>
+      <c r="J8">
+        <v>42.237650000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -741,8 +915,23 @@
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>1500</v>
+      </c>
+      <c r="J9">
+        <v>38.893180000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -755,8 +944,23 @@
       <c r="D10">
         <v>45.927129999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>1500</v>
+      </c>
+      <c r="J10">
+        <v>45.927129999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -769,8 +973,23 @@
       <c r="D11">
         <v>50.340299999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>1500</v>
+      </c>
+      <c r="J11">
+        <v>50.340299999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -783,8 +1002,23 @@
       <c r="D12">
         <v>41.374890000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>1500</v>
+      </c>
+      <c r="J12">
+        <v>41.374890000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -797,8 +1031,23 @@
       <c r="D13">
         <v>38.361440000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>1500</v>
+      </c>
+      <c r="J13">
+        <v>38.361440000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -814,8 +1063,23 @@
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>1480</v>
+      </c>
+      <c r="J14">
+        <v>40.813929999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -831,8 +1095,23 @@
       <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>1510</v>
+      </c>
+      <c r="J15">
+        <v>40.3416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -848,8 +1127,23 @@
       <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>1490</v>
+      </c>
+      <c r="J16" s="3">
+        <v>39.179549999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -865,8 +1159,23 @@
       <c r="E17" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>1490</v>
+      </c>
+      <c r="J17">
+        <v>38.854880000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -879,8 +1188,23 @@
       <c r="D18">
         <v>41.320990000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>1490</v>
+      </c>
+      <c r="J18">
+        <v>41.320990000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -893,8 +1217,23 @@
       <c r="D19">
         <v>40.317790000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>1490</v>
+      </c>
+      <c r="J19">
+        <v>40.317790000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -910,8 +1249,17 @@
       <c r="E20" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>42.100099999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -927,8 +1275,17 @@
       <c r="E21" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21">
+        <v>28</v>
+      </c>
+      <c r="J21">
+        <v>47.699590000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -944,8 +1301,17 @@
       <c r="E22" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <v>44.202330000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -960,6 +1326,334 @@
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>1490</v>
+      </c>
+      <c r="J23">
+        <v>41.216070000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>41.281350000000003</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24">
+        <v>80</v>
+      </c>
+      <c r="I24">
+        <v>750</v>
+      </c>
+      <c r="J24">
+        <v>41.281350000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>37.374009999999998</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>750</v>
+      </c>
+      <c r="J25">
+        <v>37.374009999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>40.191980000000001</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>750</v>
+      </c>
+      <c r="J26">
+        <v>40.191980000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>39.252180000000003</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27">
+        <v>22</v>
+      </c>
+      <c r="I27">
+        <v>750</v>
+      </c>
+      <c r="J27">
+        <v>39.252180000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>43.322899999999997</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>750</v>
+      </c>
+      <c r="J28">
+        <v>43.322899999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>40.369289999999999</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29">
+        <v>21</v>
+      </c>
+      <c r="I29">
+        <v>750</v>
+      </c>
+      <c r="J29">
+        <v>40.369289999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>40.974420000000002</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <v>750</v>
+      </c>
+      <c r="J30">
+        <v>40.974420000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>37.811320000000002</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>750</v>
+      </c>
+      <c r="J31">
+        <v>37.811320000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>39.124940000000002</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>750</v>
+      </c>
+      <c r="J32">
+        <v>39.124940000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>40.389429999999997</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>750</v>
+      </c>
+      <c r="J33">
+        <v>40.389429999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>41.995730000000002</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>750</v>
+      </c>
+      <c r="J34">
+        <v>41.995730000000002</v>
       </c>
     </row>
   </sheetData>
